--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/所有者权益合计.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/所有者权益合计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1137.09895</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3022.89703</v>
-      </c>
-      <c r="D2" t="n">
-        <v>364.94462</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.85284</v>
-      </c>
-      <c r="F2" t="n">
-        <v>295.79771</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3144.06098</v>
-      </c>
-      <c r="H2" t="n">
-        <v>773.74325</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1204.3051</v>
-      </c>
-      <c r="J2" t="n">
-        <v>434.47346</v>
-      </c>
-      <c r="K2" t="n">
-        <v>838.93715</v>
-      </c>
-      <c r="L2" t="n">
-        <v>158.89482</v>
-      </c>
-      <c r="M2" t="n">
-        <v>226.12422</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1736.56558</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1003.2974</v>
-      </c>
-      <c r="P2" t="n">
-        <v>199.03313</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>735.30812</v>
-      </c>
-      <c r="R2" t="n">
-        <v>238.69068</v>
-      </c>
-      <c r="S2" t="n">
-        <v>129.18314</v>
-      </c>
-      <c r="T2" t="n">
-        <v>379.77857</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1062.11974</v>
-      </c>
-      <c r="V2" t="n">
-        <v>331.90739</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1341.34971</v>
-      </c>
-      <c r="X2" t="n">
-        <v>7363.60252</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>3026.30435</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1979.47959</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>313.55366</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1529.51018</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>2451.23476</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1758.76934</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>926.31178</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>49406.88</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>852.4382900000001</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>911.62715</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>2124.43576</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>258.86062</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>638.5878</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>851.6129100000001</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1089.01132</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4203.0566</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>174.79702</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1194.44213</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3423.54699</v>
-      </c>
-      <c r="D3" t="n">
-        <v>428.59457</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.73953</v>
-      </c>
-      <c r="F3" t="n">
-        <v>357.71128</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3490.91253</v>
-      </c>
-      <c r="H3" t="n">
-        <v>613.43276</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1478.43366</v>
-      </c>
-      <c r="J3" t="n">
-        <v>494.19986</v>
-      </c>
-      <c r="K3" t="n">
-        <v>988.49277</v>
-      </c>
-      <c r="L3" t="n">
-        <v>176.68283</v>
-      </c>
-      <c r="M3" t="n">
-        <v>257.98977</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1862.2628</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1147.18029</v>
-      </c>
-      <c r="P3" t="n">
-        <v>201.29232</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>818.19801</v>
-      </c>
-      <c r="R3" t="n">
-        <v>289.50628</v>
-      </c>
-      <c r="S3" t="n">
-        <v>138.30972</v>
-      </c>
-      <c r="T3" t="n">
-        <v>409.40509</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1208.8055</v>
-      </c>
-      <c r="V3" t="n">
-        <v>343.94868</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1552.79331</v>
-      </c>
-      <c r="X3" t="n">
-        <v>8076.27027</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>3596.65765</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>2310.89013</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>361.11424</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1717.39978</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>2693.26067</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>2014.30475</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>979.33683</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>55424.4</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>976.64329</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1060.5366</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>2319.08694</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>339.86717</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>716.84396</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>995.4248700000001</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1227.80426</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4788.28433</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>182.62979</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1320.47182</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3809.06032</v>
-      </c>
-      <c r="D4" t="n">
-        <v>500.23411</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.07025</v>
-      </c>
-      <c r="F4" t="n">
-        <v>401.92752</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3977.83767</v>
-      </c>
-      <c r="H4" t="n">
-        <v>632.5834</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1702.76327</v>
-      </c>
-      <c r="J4" t="n">
-        <v>557.2674500000001</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1138.37756</v>
-      </c>
-      <c r="L4" t="n">
-        <v>200.65268</v>
-      </c>
-      <c r="M4" t="n">
-        <v>289.24626</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2016.75792</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1238.03151</v>
-      </c>
-      <c r="P4" t="n">
-        <v>199.0276</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>902.43951</v>
-      </c>
-      <c r="R4" t="n">
-        <v>315.17509</v>
-      </c>
-      <c r="S4" t="n">
-        <v>138.19277</v>
-      </c>
-      <c r="T4" t="n">
-        <v>469.33981</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1368.46221</v>
-      </c>
-      <c r="V4" t="n">
-        <v>373.76672</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2045.23183</v>
-      </c>
-      <c r="X4" t="n">
-        <v>8587.181399999999</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>4058.28386</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>2547.71833</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>427.91334</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1683.19067</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>2833.9216</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>2289.76944</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1102.9724</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>60242.01</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1066.86771</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>1169.91586</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>2514.3462</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>314.8184</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>869.08323</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1183.16146</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1324.58682</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4249.52198</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>203.84691</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
